--- a/process/Iteration02.xlsx
+++ b/process/Iteration02.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Process</t>
   </si>
@@ -35,75 +35,15 @@
     <t>Iteration Backlog</t>
   </si>
   <si>
-    <t>Iteration #01 Goals and Tasks</t>
-  </si>
-  <si>
     <t>API</t>
   </si>
   <si>
     <t>MongoDB</t>
   </si>
   <si>
-    <t>Clear Database</t>
-  </si>
-  <si>
-    <t>Fill Database from JSON</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
     <t>Matches</t>
   </si>
   <si>
-    <t>View One Team</t>
-  </si>
-  <si>
-    <t>List Teams</t>
-  </si>
-  <si>
-    <t>List Matches</t>
-  </si>
-  <si>
-    <t>View One Match</t>
-  </si>
-  <si>
-    <t>Edit/New Team wo/Validation</t>
-  </si>
-  <si>
-    <t>Client Validation</t>
-  </si>
-  <si>
-    <t>Feeds</t>
-  </si>
-  <si>
-    <t>Read One Feed</t>
-  </si>
-  <si>
-    <t>Apply Feed Data to Mongo Data</t>
-  </si>
-  <si>
-    <t>Expose Teams</t>
-  </si>
-  <si>
-    <t>Expose Matches</t>
-  </si>
-  <si>
-    <t>Test Console Client</t>
-  </si>
-  <si>
-    <t>Define Match first implementation</t>
-  </si>
-  <si>
-    <t>Add Match</t>
-  </si>
-  <si>
-    <t>Calculate Team from Matches</t>
-  </si>
-  <si>
-    <t>Save Match in Persistence</t>
-  </si>
-  <si>
     <t>Site</t>
   </si>
   <si>
@@ -113,22 +53,25 @@
     <t>Home Page</t>
   </si>
   <si>
-    <t>Open Database in Application</t>
-  </si>
-  <si>
-    <t>Inject Database to Services</t>
-  </si>
-  <si>
-    <t>Get By Id</t>
-  </si>
-  <si>
-    <t>New Match</t>
-  </si>
-  <si>
-    <t>Edit Match</t>
-  </si>
-  <si>
-    <t>Delete Match</t>
+    <t>Iteration #03 Goals and Tasks</t>
+  </si>
+  <si>
+    <t>Remove initial load in app</t>
+  </si>
+  <si>
+    <t>Cache results</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Deploy latests version</t>
+  </si>
+  <si>
+    <t>Historical Matches</t>
+  </si>
+  <si>
+    <t>Current Matches</t>
   </si>
 </sst>
 </file>
@@ -159,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +118,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -220,8 +157,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,50 +453,48 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>28</v>
+      <c r="A11" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -566,22 +502,20 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>24</v>
+      <c r="A14" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>10</v>
+      <c r="A16" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -598,116 +532,17 @@
       <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>9</v>
+      <c r="A20" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>22</v>
+      <c r="A21" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/process/Iteration02.xlsx
+++ b/process/Iteration02.xlsx
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -158,8 +158,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +491,7 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -506,7 +504,7 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
